--- a/Excel-Practice/Production-Schedule-2.xlsx
+++ b/Excel-Practice/Production-Schedule-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OS\Documents\Excel-Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF107C1-2EF9-4B0D-B9AD-DD83E5F08973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF87274-3020-43D6-8782-83852092CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{8F35E684-CCED-45E1-95C7-83AD8026CE5E}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{8F35E684-CCED-45E1-95C7-83AD8026CE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,128 +135,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -569,7 +456,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,18 +474,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -636,31 +523,31 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>500</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>485</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>438</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>505</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>483</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>540</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>441</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>550</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>345</v>
       </c>
     </row>
@@ -668,31 +555,31 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>175</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>170</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>153</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>177</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>169</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>189</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>154</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>193</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>200</v>
       </c>
     </row>
@@ -700,31 +587,31 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>350</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>340</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>306</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>354</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>338</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>378</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>309</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>385</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>350</v>
       </c>
     </row>
@@ -732,31 +619,31 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>890</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>863</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>779</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>899</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>859</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>961</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>785</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>979</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>885</v>
       </c>
     </row>
@@ -766,7 +653,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:J2">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
